--- a/python-service/october_2024.xlsx
+++ b/python-service/october_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codingv2/Projects/FS-Summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codingv2/financial-dashboard/python-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B626803-9D27-A747-B18F-A0FDBFF2AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2CDB98-1217-7744-A1A1-F82E3DD6A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="760" windowWidth="33080" windowHeight="18560" xr2:uid="{16A533FB-7B9F-8F45-8414-31E146E3EA80}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>taxes</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1107,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1122,7 @@
     <col min="7" max="7" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1142,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45596</v>
       </c>
@@ -1160,8 +1166,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45596</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45596</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45596</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45596</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45596</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45595</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45591</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45590</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45589</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45588</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45588</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45587</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45586</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45586</v>
       </c>
